--- a/output/Transitions Rule/facility_data/transition_rule_facility_demographics_10mi.xlsx
+++ b/output/Transitions Rule/facility_data/transition_rule_facility_demographics_10mi.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Linde-Whiting</t>
   </si>
   <si>
-    <t xml:space="preserve">EAST CHICAGO</t>
+    <t xml:space="preserve">East Chicago</t>
   </si>
   <si>
     <t xml:space="preserve">Diversified-CPC</t>
@@ -110,19 +110,16 @@
     <t xml:space="preserve">CFI-PortNeal</t>
   </si>
   <si>
-    <t xml:space="preserve">SERGEANT BLUFF</t>
+    <t xml:space="preserve">Sergeant Bluff</t>
   </si>
   <si>
     <t xml:space="preserve">APC-Geismar</t>
   </si>
   <si>
-    <t xml:space="preserve">GEISMAR</t>
+    <t xml:space="preserve">Geismar</t>
   </si>
   <si>
     <t xml:space="preserve">Honeywell-Geismar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geismar</t>
   </si>
   <si>
     <t xml:space="preserve">AEROPRES-SIBLEY</t>
@@ -552,52 +549,52 @@
       </c>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>511.589475456597</v>
+        <v>538.340118597339</v>
       </c>
       <c r="F2" t="n">
-        <v>102413</v>
+        <v>110502</v>
       </c>
       <c r="G2" t="n">
-        <v>200.185900831122</v>
+        <v>205.264285871757</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="J2" t="n">
-        <v>73366</v>
+        <v>82321</v>
       </c>
       <c r="K2" t="n">
-        <v>19813</v>
+        <v>19053</v>
       </c>
       <c r="L2" t="n">
-        <v>1131</v>
+        <v>1167</v>
       </c>
       <c r="M2" t="n">
-        <v>1011</v>
+        <v>671</v>
       </c>
       <c r="N2" t="n">
-        <v>9978</v>
+        <v>10052</v>
       </c>
       <c r="O2" t="n">
-        <v>53.8625238095238</v>
+        <v>54.9462878787879</v>
       </c>
       <c r="P2" t="n">
-        <v>6.20474724497091</v>
+        <v>6.03990958919793</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.7011832099005</v>
+        <v>11.2098672384383</v>
       </c>
       <c r="R2" t="n">
-        <v>36.3076923076923</v>
+        <v>36.1194029850746</v>
       </c>
       <c r="S2" t="n">
-        <v>0.455384615384615</v>
+        <v>0.453731343283582</v>
       </c>
     </row>
     <row r="3">
@@ -725,52 +722,52 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E5" t="n">
-        <v>650.020520283392</v>
+        <v>650.400166711181</v>
       </c>
       <c r="F5" t="n">
-        <v>430480</v>
+        <v>433749</v>
       </c>
       <c r="G5" t="n">
-        <v>662.256015875194</v>
+        <v>666.895585518219</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.091</v>
+        <v>0.09</v>
       </c>
       <c r="J5" t="n">
-        <v>216940</v>
+        <v>219381</v>
       </c>
       <c r="K5" t="n">
-        <v>40487</v>
+        <v>40602</v>
       </c>
       <c r="L5" t="n">
-        <v>3036</v>
+        <v>3048</v>
       </c>
       <c r="M5" t="n">
-        <v>77020</v>
+        <v>77119</v>
       </c>
       <c r="N5" t="n">
-        <v>194986</v>
+        <v>196413</v>
       </c>
       <c r="O5" t="n">
-        <v>56.802</v>
+        <v>56.7661715481172</v>
       </c>
       <c r="P5" t="n">
-        <v>8.00481865496475</v>
+        <v>7.98943851642652</v>
       </c>
       <c r="Q5" t="n">
-        <v>10.8930044649369</v>
+        <v>10.9229564335092</v>
       </c>
       <c r="R5" t="n">
         <v>30</v>
       </c>
       <c r="S5" t="n">
-        <v>0.45679012345679</v>
+        <v>0.45655737704918</v>
       </c>
     </row>
     <row r="6">
@@ -784,16 +781,16 @@
         <v>183562</v>
       </c>
       <c r="D6" t="n">
-        <v>686</v>
+        <v>595</v>
       </c>
       <c r="E6" t="n">
-        <v>207.876097949593</v>
+        <v>234.787367915844</v>
       </c>
       <c r="F6" t="n">
-        <v>733667</v>
+        <v>651778</v>
       </c>
       <c r="G6" t="n">
-        <v>3529.34756442226</v>
+        <v>2776.03520915835</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -802,34 +799,34 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>193440</v>
+        <v>214835</v>
       </c>
       <c r="K6" t="n">
-        <v>472694</v>
+        <v>368432</v>
       </c>
       <c r="L6" t="n">
-        <v>1497</v>
+        <v>1437</v>
       </c>
       <c r="M6" t="n">
-        <v>4755</v>
+        <v>5310</v>
       </c>
       <c r="N6" t="n">
-        <v>125463</v>
+        <v>127797</v>
       </c>
       <c r="O6" t="n">
-        <v>46.5637971014493</v>
+        <v>47.5288342440801</v>
       </c>
       <c r="P6" t="n">
-        <v>11.3974486627368</v>
+        <v>10.6400467700909</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.7187878904634</v>
+        <v>11.544172148924</v>
       </c>
       <c r="R6" t="n">
-        <v>29.7959183673469</v>
+        <v>29.5294117647059</v>
       </c>
       <c r="S6" t="n">
-        <v>0.380320699708455</v>
+        <v>0.369411764705882</v>
       </c>
     </row>
     <row r="7">
@@ -900,52 +897,52 @@
         <v>2888938</v>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" t="n">
-        <v>1043.35108924509</v>
+        <v>1045.26318446616</v>
       </c>
       <c r="F8" t="n">
-        <v>52063</v>
+        <v>55152</v>
       </c>
       <c r="G8" t="n">
-        <v>49.8997897607695</v>
+        <v>52.7637448822683</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="J8" t="n">
-        <v>41655</v>
+        <v>43419</v>
       </c>
       <c r="K8" t="n">
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="L8" t="n">
-        <v>3961</v>
+        <v>3977</v>
       </c>
       <c r="M8" t="n">
-        <v>867</v>
+        <v>947</v>
       </c>
       <c r="N8" t="n">
-        <v>8360</v>
+        <v>9775</v>
       </c>
       <c r="O8" t="n">
-        <v>66.4677333333333</v>
+        <v>65.6720425531915</v>
       </c>
       <c r="P8" t="n">
-        <v>5.89643697298233</v>
+        <v>6.48747976102618</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.25057632007017</v>
+        <v>6.49071037566484</v>
       </c>
       <c r="R8" t="n">
         <v>20</v>
       </c>
       <c r="S8" t="n">
-        <v>0.215555555555556</v>
+        <v>0.214893617021277</v>
       </c>
     </row>
     <row r="9">
@@ -1012,109 +1009,109 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
         <v>528957</v>
       </c>
       <c r="D10" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" t="n">
-        <v>553.491087623413</v>
+        <v>555.22662309248</v>
       </c>
       <c r="F10" t="n">
-        <v>186714</v>
+        <v>182469</v>
       </c>
       <c r="G10" t="n">
-        <v>337.33876511312</v>
+        <v>328.638779934022</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="J10" t="n">
-        <v>121117</v>
+        <v>119600</v>
       </c>
       <c r="K10" t="n">
-        <v>52148</v>
+        <v>49943</v>
       </c>
       <c r="L10" t="n">
         <v>141</v>
       </c>
       <c r="M10" t="n">
-        <v>4149</v>
+        <v>3623</v>
       </c>
       <c r="N10" t="n">
-        <v>9443</v>
+        <v>9220</v>
       </c>
       <c r="O10" t="n">
-        <v>72.1089130434783</v>
+        <v>72.2608507462687</v>
       </c>
       <c r="P10" t="n">
-        <v>6.00025010889643</v>
+        <v>5.92115845564032</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.76099823466533</v>
+        <v>6.6311776732443</v>
       </c>
       <c r="R10" t="n">
-        <v>79.0140845070423</v>
+        <v>79.4202898550725</v>
       </c>
       <c r="S10" t="n">
-        <v>0.523943661971831</v>
+        <v>0.521739130434783</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
-        <v>725.916553584071</v>
+        <v>761.435287872035</v>
       </c>
       <c r="F11" t="n">
-        <v>20900</v>
+        <v>37756</v>
       </c>
       <c r="G11" t="n">
-        <v>28.7911880460782</v>
+        <v>49.5853037038982</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="J11" t="n">
-        <v>14766</v>
+        <v>24324</v>
       </c>
       <c r="K11" t="n">
-        <v>5683</v>
+        <v>12493</v>
       </c>
       <c r="L11" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M11" t="n">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="N11" t="n">
-        <v>404</v>
+        <v>653</v>
       </c>
       <c r="O11" t="n">
-        <v>37.2786111111111</v>
+        <v>34.7644117647059</v>
       </c>
       <c r="P11" t="n">
-        <v>8.60935005018723</v>
+        <v>8.12780482947082</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.420151145604</v>
+        <v>20.6481178232457</v>
       </c>
       <c r="R11" t="n">
         <v>40</v>
@@ -1125,128 +1122,128 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
       </c>
       <c r="C12" t="n">
         <v>2423361</v>
       </c>
       <c r="D12" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E12" t="n">
-        <v>1165.33116652937</v>
+        <v>1195.70892071902</v>
       </c>
       <c r="F12" t="n">
-        <v>121765</v>
+        <v>128891</v>
       </c>
       <c r="G12" t="n">
-        <v>104.489610762445</v>
+        <v>107.794629417412</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="J12" t="n">
-        <v>82960</v>
+        <v>88781</v>
       </c>
       <c r="K12" t="n">
-        <v>27561</v>
+        <v>28588</v>
       </c>
       <c r="L12" t="n">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="M12" t="n">
         <v>5625</v>
       </c>
       <c r="N12" t="n">
-        <v>30444</v>
+        <v>31670</v>
       </c>
       <c r="O12" t="n">
-        <v>55.2176041666667</v>
+        <v>55.460206185567</v>
       </c>
       <c r="P12" t="n">
-        <v>8.78927403146076</v>
+        <v>8.66775464619718</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.99845201018645</v>
+        <v>8.88279091282656</v>
       </c>
       <c r="R12" t="n">
-        <v>58.2075471698113</v>
+        <v>57.962962962963</v>
       </c>
       <c r="S12" t="n">
-        <v>0.399056603773585</v>
+        <v>0.399074074074074</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
       </c>
       <c r="C13" t="n">
         <v>26401</v>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" t="n">
-        <v>431.716953665414</v>
+        <v>429.942996016745</v>
       </c>
       <c r="F13" t="n">
-        <v>54195</v>
+        <v>51362</v>
       </c>
       <c r="G13" t="n">
-        <v>125.533638509832</v>
+        <v>119.462348441186</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="J13" t="n">
-        <v>49215</v>
+        <v>46644</v>
       </c>
       <c r="K13" t="n">
-        <v>1225</v>
+        <v>1062</v>
       </c>
       <c r="L13" t="n">
         <v>322</v>
       </c>
       <c r="M13" t="n">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="N13" t="n">
-        <v>22223</v>
+        <v>20610</v>
       </c>
       <c r="O13" t="n">
-        <v>59.7000333333333</v>
+        <v>62.32375</v>
       </c>
       <c r="P13" t="n">
-        <v>5.8043284535258</v>
+        <v>5.87796124304657</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.31851910537641</v>
+        <v>5.93507974024599</v>
       </c>
       <c r="R13" t="n">
         <v>20</v>
       </c>
       <c r="S13" t="n">
-        <v>0.217142857142857</v>
+        <v>0.212121212121212</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="n">
@@ -1300,59 +1297,59 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" t="n">
-        <v>582.878606675492</v>
+        <v>584.977037050589</v>
       </c>
       <c r="F15" t="n">
-        <v>74984</v>
+        <v>76577</v>
       </c>
       <c r="G15" t="n">
-        <v>128.644282259181</v>
+        <v>130.905993141364</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="J15" t="n">
-        <v>67352</v>
+        <v>68884</v>
       </c>
       <c r="K15" t="n">
-        <v>4720</v>
+        <v>4726</v>
       </c>
       <c r="L15" t="n">
         <v>140</v>
       </c>
       <c r="M15" t="n">
-        <v>799</v>
+        <v>854</v>
       </c>
       <c r="N15" t="n">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="O15" t="n">
-        <v>49.3815454545455</v>
+        <v>49.6100895522388</v>
       </c>
       <c r="P15" t="n">
-        <v>8.937959559583</v>
+        <v>8.84973276756062</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.76818915920874</v>
+        <v>9.73087658338039</v>
       </c>
       <c r="R15" t="n">
-        <v>30.8695652173913</v>
+        <v>30.8571428571429</v>
       </c>
       <c r="S15" t="n">
-        <v>0.395652173913044</v>
+        <v>0.395714285714286</v>
       </c>
     </row>
   </sheetData>
